--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5863" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E8AA60-844E-4086-8D5C-5F7924E460AE}"/>
+  <xr:revisionPtr revIDLastSave="5910" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3955E815-A938-46C4-89B1-E6E437897C0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="24" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="29" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -41,9 +41,10 @@
     <sheet name="2019" sheetId="57" r:id="rId26"/>
     <sheet name="2020" sheetId="58" r:id="rId27"/>
     <sheet name="2021" sheetId="59" r:id="rId28"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId29"/>
-    <sheet name="YTD Wins-Losses" sheetId="60" r:id="rId30"/>
-    <sheet name="Winning Percentile Range" sheetId="61" r:id="rId31"/>
+    <sheet name="2022" sheetId="62" r:id="rId29"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId30"/>
+    <sheet name="YTD Wins-Losses" sheetId="60" r:id="rId31"/>
+    <sheet name="Winning Percentile Range" sheetId="61" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5189" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5219" uniqueCount="873">
   <si>
     <t>6-4 6-4</t>
   </si>
@@ -2664,6 +2665,24 @@
   </si>
   <si>
     <t>Su-Wei Hsieh (CHINESE TAIPEI)</t>
+  </si>
+  <si>
+    <t>CITI OPEN</t>
+  </si>
+  <si>
+    <t>Rebecca Marino (CANADA)</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Jil Teichmann (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Alison Van Uytvanck (BELGIUM)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -2746,20 +2765,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -5331,7 +5347,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E172028B-ECD4-4779-80CD-2A3D52BC3C5E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5838,7 +5854,7 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6080,7 +6096,7 @@
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6204,7 +6220,7 @@
       <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6232,7 +6248,7 @@
       <c r="E34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6246,7 +6262,7 @@
       <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6355,7 +6371,7 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6414,7 +6430,7 @@
       <c r="D7" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F7" t="s">
@@ -6651,7 +6667,7 @@
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6679,7 +6695,7 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6752,7 +6768,7 @@
       <c r="D35" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F35" t="s">
@@ -6775,7 +6791,7 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7352,7 +7368,7 @@
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7387,7 +7403,7 @@
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7610,7 +7626,7 @@
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7621,7 +7637,7 @@
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7641,7 +7657,7 @@
       <c r="E30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7655,7 +7671,7 @@
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7669,7 +7685,7 @@
       <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8032,7 +8048,7 @@
       <c r="D62" t="s">
         <v>442</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F62" t="s">
@@ -8750,13 +8766,13 @@
       <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" t="s">
         <v>503</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8764,13 +8780,13 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" t="s">
         <v>368</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" t="s">
         <v>494</v>
       </c>
     </row>
@@ -8922,7 +8938,7 @@
       <c r="C41" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" t="s">
         <v>368</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -12063,7 +12079,7 @@
       <c r="D16" t="s">
         <v>606</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F16" t="s">
@@ -12958,7 +12974,7 @@
       <c r="D12" t="s">
         <v>663</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F12" t="s">
@@ -13372,7 +13388,7 @@
       <c r="D5" t="s">
         <v>683</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
@@ -14078,7 +14094,7 @@
       <c r="D64" t="s">
         <v>535</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F64" t="s">
@@ -14688,7 +14704,7 @@
       <c r="D48" t="s">
         <v>425</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F48" t="s">
@@ -15736,8 +15752,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15797,7 +15813,7 @@
       <c r="D3" t="s">
         <v>782</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F3" t="s">
@@ -17412,7 +17428,7 @@
       <c r="D22" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
@@ -17966,7 +17982,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" activeCellId="8" sqref="E3 E6 E8 E10 E12 E14 E16 E19 E21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18229,708 +18245,127 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F7C7A5-61A7-4393-8A93-29EAF2B83879}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A29 F1:F29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1994</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
-        <f t="shared" ref="F2:F29" si="0">(D2-E2)/D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1995</v>
-      </c>
-      <c r="B3" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1996</v>
-      </c>
-      <c r="B4" s="5">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1997</v>
-      </c>
-      <c r="B5" s="5">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.54838709677419351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1998</v>
-      </c>
-      <c r="B6" s="5">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>53</v>
-      </c>
-      <c r="E6" s="5">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.75471698113207553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1999</v>
-      </c>
-      <c r="B7" s="5">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="D2" t="s">
+        <v>868</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>870</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5">
-        <v>61</v>
-      </c>
-      <c r="E7" s="5">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.78688524590163933</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2000</v>
-      </c>
-      <c r="B8" s="5">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.90243902439024393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2001</v>
-      </c>
-      <c r="B9" s="5">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5">
-        <v>46</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.89130434782608692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2002</v>
-      </c>
-      <c r="B10" s="5">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5">
-        <v>62</v>
-      </c>
-      <c r="E10" s="5">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.85483870967741937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2003</v>
-      </c>
-      <c r="B11" s="5">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.80769230769230771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2004</v>
-      </c>
-      <c r="B12" s="5">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>44</v>
-      </c>
-      <c r="E12" s="5">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2005</v>
-      </c>
-      <c r="B13" s="5">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.72972972972972971</v>
-      </c>
-      <c r="T13" s="9"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2006</v>
-      </c>
-      <c r="B14" s="5">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5">
-        <v>6</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="T14" s="9"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2007</v>
-      </c>
-      <c r="B15" s="5">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="T15" s="9"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2008</v>
-      </c>
-      <c r="B16" s="5">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5">
-        <v>40</v>
-      </c>
-      <c r="E16" s="5">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="T16" s="9"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2009</v>
-      </c>
-      <c r="B17" s="5">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>38</v>
-      </c>
-      <c r="E17" s="5">
-        <v>16</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.57894736842105265</v>
-      </c>
-      <c r="T17" s="9"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2010</v>
-      </c>
-      <c r="B18" s="5">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>38</v>
-      </c>
-      <c r="E18" s="5">
-        <v>7</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.81578947368421051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2011</v>
-      </c>
-      <c r="B19" s="5">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5">
-        <v>3</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2012</v>
-      </c>
-      <c r="B20" s="5">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5">
-        <v>9</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2013</v>
-      </c>
-      <c r="B21" s="5">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>16</v>
-      </c>
-      <c r="E21" s="5">
-        <v>10</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2014</v>
-      </c>
-      <c r="B22" s="5">
-        <v>16</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>32</v>
-      </c>
-      <c r="E22" s="5">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2015</v>
-      </c>
-      <c r="B23" s="5">
-        <v>17</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5">
-        <v>41</v>
-      </c>
-      <c r="E23" s="5">
-        <v>13</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.68292682926829273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2016</v>
-      </c>
-      <c r="B24" s="5">
-        <v>17</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
-        <v>26</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>745</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.42307692307692307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2017</v>
-      </c>
-      <c r="B25" s="5">
-        <v>14</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>38</v>
-      </c>
-      <c r="E25" s="5">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.63157894736842102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="5">
-        <v>12</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>17</v>
-      </c>
-      <c r="E26" s="5">
-        <v>11</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="0"/>
-        <v>0.35294117647058826</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="5">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5">
-        <v>19</v>
-      </c>
-      <c r="E27" s="5">
-        <v>15</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="0"/>
-        <v>0.21052631578947367</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2020</v>
-      </c>
-      <c r="B28" s="5">
-        <v>8</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>8</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2021</v>
-      </c>
-      <c r="B29" s="5">
-        <v>9</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>3</v>
-      </c>
-      <c r="E29" s="5">
-        <v>9</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="6">
-        <f>SUM(B2:B29)</f>
-        <v>328</v>
-      </c>
-      <c r="C30" s="6">
-        <f t="shared" ref="C30:E30" si="1">SUM(C2:C29)</f>
-        <v>49</v>
-      </c>
-      <c r="D30" s="6">
-        <f t="shared" si="1"/>
-        <v>815</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" si="1"/>
-        <v>265</v>
-      </c>
-      <c r="F30" s="7">
-        <f>(D30-E30)/D30</f>
-        <v>0.67484662576687116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="6">
-        <f>AVERAGE(B2:B29)</f>
-        <v>11.714285714285714</v>
-      </c>
-      <c r="C31" s="6">
-        <f t="shared" ref="C31:E31" si="2">AVERAGE(C2:C29)</f>
-        <v>1.75</v>
-      </c>
-      <c r="D31" s="6">
-        <f t="shared" si="2"/>
-        <v>29.107142857142858</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="2"/>
-        <v>9.4642857142857135</v>
-      </c>
-      <c r="F31" s="7">
-        <f>(D31-E31)/D31</f>
-        <v>0.67484662576687127</v>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>871</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>872</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F18:F29">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F17">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -19181,6 +18616,735 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1994</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <f t="shared" ref="F2:F30" si="0">(D2-E2)/D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1995</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1996</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1997</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.54838709677419351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1998</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.75471698113207553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1999</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.78688524590163933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90243902439024393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2001</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.89130434782608692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2002</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.85483870967741937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2003</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.80769230769230771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2005</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.72972972972972971</v>
+      </c>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2007</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2009</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2010</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.81578947368421051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2011</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2013</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2015</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.68292682926829273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2016</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.42307692307692307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2018</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2020</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2022</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5">
+        <f>SUM(B2:B30)</f>
+        <v>332</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUM(C2:C30)</f>
+        <v>49</v>
+      </c>
+      <c r="D31" s="5">
+        <f>SUM(D2:D30)</f>
+        <v>815</v>
+      </c>
+      <c r="E31" s="5">
+        <f>SUM(E2:E30)</f>
+        <v>269</v>
+      </c>
+      <c r="F31" s="6">
+        <f>(D31-E31)/D31</f>
+        <v>0.66993865030674848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="5">
+        <f>AVERAGE(B2:B30)</f>
+        <v>11.448275862068966</v>
+      </c>
+      <c r="C32" s="5">
+        <f>AVERAGE(C2:C30)</f>
+        <v>1.6896551724137931</v>
+      </c>
+      <c r="D32" s="5">
+        <f>AVERAGE(D2:D30)</f>
+        <v>28.103448275862068</v>
+      </c>
+      <c r="E32" s="5">
+        <f>AVERAGE(E2:E30)</f>
+        <v>9.2758620689655178</v>
+      </c>
+      <c r="F32" s="6">
+        <f>(D32-E32)/D32</f>
+        <v>0.66993865030674837</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F18:F30">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F17">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E3FBC-FA9F-4B06-8F41-170406BF7609}">
   <sheetPr>
@@ -19862,7 +20026,7 @@
       <c r="D53" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F53" t="s">
@@ -20181,7 +20345,7 @@
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -20319,7 +20483,7 @@
       <c r="E26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -20333,7 +20497,7 @@
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -20347,7 +20511,7 @@
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -20595,7 +20759,7 @@
       <c r="E48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -21221,7 +21385,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>215</v>
       </c>
     </row>
@@ -21255,7 +21419,7 @@
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>220</v>
       </c>
     </row>
@@ -21283,7 +21447,7 @@
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -21373,7 +21537,7 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -21455,7 +21619,7 @@
       <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -21469,7 +21633,7 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -21503,7 +21667,7 @@
       <c r="E36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -21565,7 +21729,7 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -21700,7 +21864,7 @@
       <c r="E52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -21711,7 +21875,7 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -21731,7 +21895,7 @@
       <c r="E55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="8" t="s">
         <v>220</v>
       </c>
     </row>
@@ -21745,7 +21909,7 @@
       <c r="E56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -21759,7 +21923,7 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -21855,7 +22019,7 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -21869,7 +22033,7 @@
       <c r="E66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -21883,7 +22047,7 @@
       <c r="E67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -21897,7 +22061,7 @@
       <c r="E68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -21942,7 +22106,7 @@
       <c r="D72" t="s">
         <v>184</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F72" t="s">
@@ -22097,7 +22261,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -22159,7 +22323,7 @@
       <c r="E90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="8" t="s">
         <v>257</v>
       </c>
     </row>
@@ -22357,7 +22521,7 @@
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -22371,7 +22535,7 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -22385,7 +22549,7 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -22447,7 +22611,7 @@
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -22461,7 +22625,7 @@
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>268</v>
       </c>
     </row>
@@ -22503,7 +22667,7 @@
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>270</v>
       </c>
     </row>
@@ -22537,7 +22701,7 @@
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -22579,7 +22743,7 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -22600,7 +22764,7 @@
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22628,7 +22792,7 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -22704,7 +22868,7 @@
       <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22738,7 +22902,7 @@
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -22766,7 +22930,7 @@
       <c r="E40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -23167,7 +23331,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>130</v>
       </c>
     </row>
@@ -23209,7 +23373,7 @@
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23220,7 +23384,7 @@
       <c r="D17" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F17" t="s">
@@ -23243,7 +23407,7 @@
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>302</v>
       </c>
     </row>
@@ -23257,7 +23421,7 @@
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -23285,7 +23449,7 @@
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -23449,7 +23613,7 @@
       <c r="E36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -23477,7 +23641,7 @@
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -23491,7 +23655,7 @@
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>302</v>
       </c>
     </row>
@@ -23588,7 +23752,7 @@
       <c r="E47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -23602,7 +23766,7 @@
       <c r="E48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -23616,7 +23780,7 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -23630,7 +23794,7 @@
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -23644,7 +23808,7 @@
       <c r="E51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -23726,7 +23890,7 @@
       <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -23740,7 +23904,7 @@
       <c r="E59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -23810,7 +23974,7 @@
       <c r="E64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -23877,7 +24041,7 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -23891,7 +24055,7 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -23939,7 +24103,7 @@
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -23981,7 +24145,7 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24015,7 +24179,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -24029,7 +24193,7 @@
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -24054,7 +24218,7 @@
       <c r="D16" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
@@ -24263,7 +24427,7 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -24339,7 +24503,7 @@
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -24415,7 +24579,7 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>130</v>
       </c>
     </row>
@@ -24429,7 +24593,7 @@
       <c r="E46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -24471,7 +24635,7 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -24505,7 +24669,7 @@
       <c r="E52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -24547,7 +24711,7 @@
       <c r="E55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -24561,7 +24725,7 @@
       <c r="E56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>302</v>
       </c>
     </row>
@@ -24713,7 +24877,7 @@
       <c r="E68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -24727,7 +24891,7 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -24747,7 +24911,7 @@
       <c r="E71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -24761,7 +24925,7 @@
       <c r="E72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -24809,7 +24973,7 @@
       <c r="E76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -24823,7 +24987,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -24837,7 +25001,7 @@
       <c r="E78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -24865,7 +25029,7 @@
       <c r="E80" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -24933,7 +25097,7 @@
       <c r="E86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="8" t="s">
         <v>366</v>
       </c>
     </row>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5910" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3955E815-A938-46C4-89B1-E6E437897C0A}"/>
+  <xr:revisionPtr revIDLastSave="5941" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF09DCB6-0024-4D64-9253-3D72FEFA5571}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="29" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="20" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -43,8 +43,8 @@
     <sheet name="2021" sheetId="59" r:id="rId28"/>
     <sheet name="2022" sheetId="62" r:id="rId29"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId30"/>
-    <sheet name="YTD Wins-Losses" sheetId="60" r:id="rId31"/>
-    <sheet name="Winning Percentile Range" sheetId="61" r:id="rId32"/>
+    <sheet name="Wins-Losses" sheetId="63" r:id="rId31"/>
+    <sheet name="YTD Winning Percentile Range" sheetId="64" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1275,9 +1275,6 @@
     <t>7-6(0) 6-2</t>
   </si>
   <si>
-    <t>VOLVO CAR OPEN</t>
-  </si>
-  <si>
     <t>Marie-Gaïané Mikaelian (SWITZERLAND)</t>
   </si>
   <si>
@@ -2683,6 +2680,9 @@
   </si>
   <si>
     <t>6-1 7-6(5)</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
   </si>
 </sst>
 </file>
@@ -2831,13 +2831,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Venus Williams (USA):</a:t>
+              <a:t>Venus Williams (USA): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> YTD Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2903,10 +2898,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$29</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1994</c:v>
                 </c:pt>
@@ -2991,15 +2986,18 @@
                 <c:pt idx="27">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$29</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3084,12 +3082,15 @@
                 <c:pt idx="27">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D795-4723-886F-153F621F42F6}"/>
+              <c16:uniqueId val="{00000000-A338-4C66-A388-B6F5A0CA638E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3119,10 +3120,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$29</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1994</c:v>
                 </c:pt>
@@ -3207,15 +3208,18 @@
                 <c:pt idx="27">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$29</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3300,12 +3304,15 @@
                 <c:pt idx="27">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D795-4723-886F-153F621F42F6}"/>
+              <c16:uniqueId val="{00000001-A338-4C66-A388-B6F5A0CA638E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3319,11 +3326,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="156473920"/>
-        <c:axId val="156480992"/>
+        <c:axId val="1208884160"/>
+        <c:axId val="1208886656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156473920"/>
+        <c:axId val="1208884160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156480992"/>
+        <c:crossAx val="1208886656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3429,7 +3436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156480992"/>
+        <c:axId val="1208886656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +3542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156473920"/>
+        <c:crossAx val="1208884160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3734,16 +3741,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$29</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1994</c:v>
                 </c:pt>
@@ -3828,15 +3834,18 @@
                 <c:pt idx="27">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$29</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3921,13 +3930,16 @@
                 <c:pt idx="27">
                   <c:v>-2</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F833-46B0-AB62-170A2E0A6E60}"/>
+              <c16:uniqueId val="{00000000-B774-41DC-85D5-C1456037A5AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3941,11 +3953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138526288"/>
-        <c:axId val="138519216"/>
+        <c:axId val="1666852128"/>
+        <c:axId val="1666864608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138526288"/>
+        <c:axId val="1666852128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4043,7 +4055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138519216"/>
+        <c:crossAx val="1666864608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4051,7 +4063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138519216"/>
+        <c:axId val="1666864608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,7 +4169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138526288"/>
+        <c:crossAx val="1666852128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5332,26 +5344,24 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{263D36E9-F748-48A0-B9E2-1F8BE8B818EB}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{265C7711-FFE7-4759-BCDF-85C7D2503514}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E172028B-ECD4-4779-80CD-2A3D52BC3C5E}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{65F69354-2F15-475B-8BCC-66C4296523F5}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -5359,13 +5369,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B1E0F9-4941-43F1-AAD3-94A902C16CFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1E57FD-1A91-9912-E408-76AC3A2C1058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5392,13 +5402,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D9D292-8B3D-408A-A139-027D0AEFFAAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799718D7-53A1-0E7B-6A9B-610998E01FF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6535,7 +6545,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>872</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -6550,7 +6560,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6558,7 +6568,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -6572,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -6586,7 +6596,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -6606,7 +6616,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6654,7 +6664,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6701,7 +6711,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -6710,7 +6720,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
@@ -6724,7 +6734,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
@@ -6744,7 +6754,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6752,13 +6762,13 @@
         <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6800,7 +6810,7 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -6862,7 +6872,7 @@
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -6876,13 +6886,13 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6896,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -6910,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -6944,12 +6954,12 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -7006,7 +7016,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7020,7 +7030,7 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>17</v>
@@ -7068,7 +7078,7 @@
         <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>17</v>
@@ -7082,7 +7092,7 @@
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
@@ -7130,7 +7140,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>17</v>
@@ -7169,7 +7179,7 @@
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -7178,7 +7188,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>17</v>
@@ -7192,13 +7202,13 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7206,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>16</v>
@@ -7217,7 +7227,7 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -7240,13 +7250,13 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7260,7 +7270,7 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -7321,7 +7331,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -7335,7 +7345,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -7349,7 +7359,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -7369,7 +7379,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7384,7 +7394,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -7432,7 +7442,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7452,7 +7462,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7466,7 +7476,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -7480,7 +7490,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -7494,13 +7504,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>439</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7514,7 +7524,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7522,7 +7532,7 @@
         <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
@@ -7542,7 +7552,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -7556,13 +7566,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>441</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
         <v>442</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7581,7 +7591,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>403</v>
+        <v>872</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -7604,7 +7614,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
@@ -7621,7 +7631,7 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -7632,7 +7642,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
@@ -7643,7 +7653,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -7652,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -7666,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
@@ -7680,7 +7690,7 @@
         <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
@@ -7694,7 +7704,7 @@
         <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -7714,7 +7724,7 @@
         <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
@@ -7728,7 +7738,7 @@
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
@@ -7742,13 +7752,13 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
+        <v>452</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
         <v>453</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7762,7 +7772,7 @@
         <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -7776,7 +7786,7 @@
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -7804,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -7824,7 +7834,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7832,7 +7842,7 @@
         <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>17</v>
@@ -7852,7 +7862,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7880,7 +7890,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7894,7 +7904,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
@@ -7908,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>17</v>
@@ -7928,7 +7938,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7956,7 +7966,7 @@
         <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>17</v>
@@ -7970,7 +7980,7 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>17</v>
@@ -8018,12 +8028,12 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -8032,7 +8042,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
@@ -8046,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>294</v>
@@ -8113,13 +8123,13 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8134,7 +8144,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -8154,7 +8164,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8196,7 +8206,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -8216,7 +8226,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8224,13 +8234,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8244,7 +8254,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8258,7 +8268,7 @@
         <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -8272,13 +8282,13 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8286,7 +8296,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -8306,7 +8316,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8314,13 +8324,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8334,7 +8344,7 @@
         <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -8354,7 +8364,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8362,18 +8372,18 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -8382,7 +8392,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -8396,7 +8406,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
@@ -8454,7 +8464,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -8463,13 +8473,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8477,7 +8487,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -8497,7 +8507,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8505,7 +8515,7 @@
         <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -8519,7 +8529,7 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -8539,7 +8549,7 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -8553,7 +8563,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -8567,13 +8577,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8587,7 +8597,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -8607,7 +8617,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8629,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
@@ -8640,7 +8650,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>872</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -8649,7 +8659,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -8663,7 +8673,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -8677,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -8691,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -8705,13 +8715,13 @@
         <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8722,7 +8732,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>17</v>
@@ -8733,7 +8743,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -8753,7 +8763,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -8767,7 +8777,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -8787,12 +8797,12 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -8815,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>16</v>
@@ -8835,7 +8845,7 @@
         <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -8855,7 +8865,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8863,13 +8873,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8883,13 +8893,13 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -8897,7 +8907,7 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -8911,13 +8921,13 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8925,7 +8935,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -8953,7 +8963,7 @@
         <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -8967,7 +8977,7 @@
         <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -8984,7 +8994,7 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>17</v>
@@ -9001,7 +9011,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9015,7 +9025,7 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>17</v>
@@ -9029,7 +9039,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>17</v>
@@ -9057,13 +9067,13 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9077,7 +9087,7 @@
         <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>17</v>
@@ -9091,7 +9101,7 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -9105,7 +9115,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>17</v>
@@ -9119,7 +9129,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>17</v>
@@ -9133,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -9153,12 +9163,12 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -9167,7 +9177,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>17</v>
@@ -9195,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>17</v>
@@ -9209,7 +9219,7 @@
         <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>17</v>
@@ -9223,18 +9233,18 @@
         <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
@@ -9243,7 +9253,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>17</v>
@@ -9257,7 +9267,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>17</v>
@@ -9285,13 +9295,13 @@
         <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9299,18 +9309,18 @@
         <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
@@ -9319,7 +9329,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>17</v>
@@ -9347,7 +9357,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>17</v>
@@ -9361,13 +9371,13 @@
         <v>123</v>
       </c>
       <c r="D75" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -9428,7 +9438,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -9442,7 +9452,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -9456,13 +9466,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9470,7 +9480,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -9484,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -9495,7 +9505,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -9504,7 +9514,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -9518,7 +9528,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
@@ -9529,7 +9539,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -9538,18 +9548,18 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>535</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -9558,13 +9568,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9592,7 +9602,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9606,7 +9616,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -9620,7 +9630,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -9634,7 +9644,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -9668,7 +9678,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -9696,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>16</v>
@@ -9716,7 +9726,7 @@
         <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -9730,7 +9740,7 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -9744,7 +9754,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
@@ -9764,13 +9774,13 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
+        <v>545</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
         <v>546</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9778,7 +9788,7 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
@@ -9806,7 +9816,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -9868,7 +9878,7 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -9896,7 +9906,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -9910,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>16</v>
@@ -9930,7 +9940,7 @@
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -9944,7 +9954,7 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>17</v>
@@ -9958,7 +9968,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>17</v>
@@ -9972,7 +9982,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -9992,7 +10002,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10006,7 +10016,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>17</v>
@@ -10020,7 +10030,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
@@ -10034,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>17</v>
@@ -10048,13 +10058,13 @@
         <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10068,18 +10078,18 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -10088,7 +10098,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>17</v>
@@ -10116,13 +10126,13 @@
         <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -10130,7 +10140,7 @@
         <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>17</v>
@@ -10147,10 +10157,10 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D61" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
@@ -10161,7 +10171,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D62" t="s">
         <v>154</v>
@@ -10170,12 +10180,12 @@
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D63" t="s">
         <v>252</v>
@@ -10184,7 +10194,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -10192,13 +10202,13 @@
         <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
@@ -10212,7 +10222,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -10273,7 +10283,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -10287,13 +10297,13 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10307,7 +10317,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -10321,7 +10331,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -10355,7 +10365,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10363,7 +10373,7 @@
         <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -10374,7 +10384,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -10383,13 +10393,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10397,13 +10407,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10411,13 +10421,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10425,7 +10435,7 @@
         <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -10439,7 +10449,7 @@
         <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -10459,7 +10469,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -10473,7 +10483,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -10487,13 +10497,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10521,12 +10531,12 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>403</v>
+        <v>872</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -10535,13 +10545,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -10549,7 +10559,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>16</v>
@@ -10569,13 +10579,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10583,13 +10593,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10597,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
@@ -10611,18 +10621,18 @@
         <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -10631,13 +10641,13 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10651,13 +10661,13 @@
         <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10665,13 +10675,13 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -10679,7 +10689,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>16</v>
@@ -10699,7 +10709,7 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
@@ -10713,7 +10723,7 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -10727,7 +10737,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -10741,13 +10751,13 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10755,7 +10765,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>17</v>
@@ -10769,7 +10779,7 @@
         <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -10803,7 +10813,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>17</v>
@@ -10817,7 +10827,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -10831,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -10859,7 +10869,7 @@
         <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>16</v>
@@ -10870,7 +10880,7 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -10879,7 +10889,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>17</v>
@@ -10893,13 +10903,13 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10913,13 +10923,13 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10939,7 +10949,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -10947,7 +10957,7 @@
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -10961,7 +10971,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
@@ -10981,7 +10991,7 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10995,18 +11005,18 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -11021,7 +11031,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -11029,13 +11039,13 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11046,7 +11056,7 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D66" t="s">
         <v>154</v>
@@ -11055,12 +11065,12 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D67" t="s">
         <v>399</v>
@@ -11069,12 +11079,12 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D68" t="s">
         <v>252</v>
@@ -11083,7 +11093,7 @@
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -11091,13 +11101,13 @@
         <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -11111,7 +11121,7 @@
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -11172,7 +11182,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -11186,7 +11196,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -11200,7 +11210,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -11220,7 +11230,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11228,13 +11238,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11248,7 +11258,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -11262,7 +11272,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -11276,7 +11286,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -11290,7 +11300,7 @@
         <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -11304,7 +11314,7 @@
         <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -11315,7 +11325,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -11324,7 +11334,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -11338,7 +11348,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -11352,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -11366,13 +11376,13 @@
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11380,13 +11390,13 @@
         <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11400,7 +11410,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -11414,7 +11424,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -11434,7 +11444,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11442,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>17</v>
@@ -11456,7 +11466,7 @@
         <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -11505,7 +11515,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
@@ -11519,7 +11529,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
@@ -11530,7 +11540,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -11539,7 +11549,7 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
@@ -11573,7 +11583,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11581,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -11595,7 +11605,7 @@
         <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
@@ -11609,7 +11619,7 @@
         <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>16</v>
@@ -11643,7 +11653,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -11657,7 +11667,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -11691,7 +11701,7 @@
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -11705,7 +11715,7 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>17</v>
@@ -11719,7 +11729,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>17</v>
@@ -11733,7 +11743,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -11747,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>16</v>
@@ -11767,7 +11777,7 @@
         <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>17</v>
@@ -11781,13 +11791,13 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -11795,7 +11805,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>17</v>
@@ -11809,13 +11819,13 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -11843,7 +11853,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -11904,7 +11914,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -11918,13 +11928,13 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11932,13 +11942,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11953,13 +11963,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>629</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11967,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -12001,7 +12011,7 @@
         <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -12015,13 +12025,13 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12043,7 +12053,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -12063,7 +12073,7 @@
         <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -12077,7 +12087,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>294</v>
@@ -12144,7 +12154,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -12158,13 +12168,13 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12172,13 +12182,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12186,7 +12196,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -12200,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -12211,7 +12221,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>872</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -12234,7 +12244,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -12248,7 +12258,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -12262,18 +12272,18 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -12282,13 +12292,13 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12296,7 +12306,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -12316,7 +12326,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -12330,13 +12340,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
+        <v>640</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
         <v>641</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12344,7 +12354,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -12358,7 +12368,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>16</v>
@@ -12378,13 +12388,13 @@
         <v>82</v>
       </c>
       <c r="D21" t="s">
+        <v>642</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
         <v>643</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12392,7 +12402,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
@@ -12412,7 +12422,7 @@
         <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>16</v>
@@ -12432,7 +12442,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -12446,7 +12456,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -12460,18 +12470,18 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -12480,13 +12490,13 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -12494,13 +12504,13 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -12508,7 +12518,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
@@ -12522,13 +12532,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -12536,13 +12546,13 @@
         <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12556,7 +12566,7 @@
         <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
@@ -12570,18 +12580,18 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -12590,7 +12600,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -12604,7 +12614,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -12618,13 +12628,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -12632,13 +12642,13 @@
         <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -12646,7 +12656,7 @@
         <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -12848,7 +12858,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -12862,7 +12872,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -12876,7 +12886,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -12887,7 +12897,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -12910,13 +12920,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12924,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -12938,13 +12948,13 @@
         <v>123</v>
       </c>
       <c r="D9" t="s">
+        <v>658</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>659</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12958,13 +12968,13 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12972,7 +12982,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>294</v>
@@ -12983,7 +12993,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>872</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -12992,13 +13002,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>664</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>665</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -13006,13 +13016,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13020,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -13052,7 +13062,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -13073,7 +13083,7 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -13093,13 +13103,13 @@
         <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13113,18 +13123,18 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -13133,7 +13143,7 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -13147,7 +13157,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
@@ -13167,7 +13177,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -13187,7 +13197,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13201,7 +13211,7 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -13215,7 +13225,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -13229,13 +13239,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -13243,13 +13253,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13257,18 +13267,18 @@
         <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -13277,7 +13287,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>16</v>
@@ -13335,7 +13345,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -13344,13 +13354,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13358,13 +13368,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13372,7 +13382,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -13386,7 +13396,7 @@
         <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>17</v>
@@ -13400,7 +13410,7 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -13420,18 +13430,18 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -13440,7 +13450,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -13454,13 +13464,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13474,7 +13484,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -13488,7 +13498,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -13502,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -13516,7 +13526,7 @@
         <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -13530,7 +13540,7 @@
         <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -13550,7 +13560,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -13564,7 +13574,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -13578,18 +13588,18 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>403</v>
+        <v>872</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -13598,13 +13608,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -13612,7 +13622,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -13626,13 +13636,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
+        <v>688</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
         <v>689</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13646,7 +13656,7 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -13660,7 +13670,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
@@ -13680,7 +13690,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -13694,13 +13704,13 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13714,13 +13724,13 @@
         <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -13728,7 +13738,7 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -13742,13 +13752,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13762,7 +13772,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
@@ -13776,7 +13786,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -13790,13 +13800,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13810,13 +13820,13 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -13824,7 +13834,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -13838,13 +13848,13 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -13852,13 +13862,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -13872,7 +13882,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -13880,7 +13890,7 @@
         <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>16</v>
@@ -13891,7 +13901,7 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -13900,13 +13910,13 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13920,7 +13930,7 @@
         <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
@@ -13934,7 +13944,7 @@
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>17</v>
@@ -13948,18 +13958,18 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -13968,7 +13978,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -13982,7 +13992,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>17</v>
@@ -13996,13 +14006,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -14010,7 +14020,7 @@
         <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -14035,7 +14045,7 @@
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -14044,18 +14054,18 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
+        <v>711</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
         <v>712</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -14064,7 +14074,7 @@
         <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>17</v>
@@ -14078,7 +14088,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>17</v>
@@ -14092,7 +14102,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>294</v>
@@ -14150,7 +14160,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -14159,7 +14169,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -14173,7 +14183,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -14187,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -14201,7 +14211,7 @@
         <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -14215,7 +14225,7 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -14235,7 +14245,7 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -14249,7 +14259,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -14263,13 +14273,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>715</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>716</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -14277,13 +14287,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14291,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
@@ -14308,7 +14318,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -14319,7 +14329,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -14340,7 +14350,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -14354,7 +14364,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
@@ -14365,7 +14375,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -14374,13 +14384,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -14388,13 +14398,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14402,13 +14412,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -14416,7 +14426,7 @@
         <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>16</v>
@@ -14436,7 +14446,7 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
@@ -14450,7 +14460,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -14464,13 +14474,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -14478,18 +14488,18 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -14498,7 +14508,7 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>16</v>
@@ -14518,7 +14528,7 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
@@ -14532,7 +14542,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -14546,7 +14556,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>16</v>
@@ -14566,13 +14576,13 @@
         <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14586,7 +14596,7 @@
         <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -14600,7 +14610,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -14614,7 +14624,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -14639,7 +14649,7 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -14648,13 +14658,13 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14668,7 +14678,7 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
@@ -14679,7 +14689,7 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -14688,7 +14698,7 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -14702,7 +14712,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>294</v>
@@ -14722,13 +14732,13 @@
         <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -14736,13 +14746,13 @@
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -14750,7 +14760,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>17</v>
@@ -14764,7 +14774,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>17</v>
@@ -14784,12 +14794,12 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -14798,7 +14808,7 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>17</v>
@@ -14812,7 +14822,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -14826,7 +14836,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
@@ -14840,7 +14850,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>17</v>
@@ -14854,13 +14864,13 @@
         <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -14868,18 +14878,18 @@
         <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -14888,7 +14898,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>16</v>
@@ -14899,7 +14909,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -14908,13 +14918,13 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -14922,7 +14932,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>17</v>
@@ -14936,7 +14946,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>17</v>
@@ -14950,7 +14960,7 @@
         <v>123</v>
       </c>
       <c r="D68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>16</v>
@@ -14961,36 +14971,36 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D70" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D71" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -14998,7 +15008,7 @@
         <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>17</v>
@@ -15012,13 +15022,13 @@
         <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -15034,8 +15044,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15070,7 +15080,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -15079,13 +15089,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15099,7 +15109,7 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -15116,7 +15126,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -15127,7 +15137,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -15139,7 +15149,7 @@
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -15148,7 +15158,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -15162,7 +15172,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -15176,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -15190,7 +15200,7 @@
         <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -15204,7 +15214,7 @@
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -15224,7 +15234,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
@@ -15244,18 +15254,18 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>872</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -15264,7 +15274,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -15278,13 +15288,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15298,7 +15308,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -15312,13 +15322,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
+        <v>760</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>761</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15332,13 +15342,13 @@
         <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -15346,7 +15356,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -15360,13 +15370,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -15374,7 +15384,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
@@ -15394,7 +15404,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -15408,13 +15418,13 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15422,13 +15432,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -15436,7 +15446,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -15450,7 +15460,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -15464,7 +15474,7 @@
         <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>16</v>
@@ -15484,13 +15494,13 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -15498,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -15512,7 +15522,7 @@
         <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -15526,13 +15536,13 @@
         <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15546,7 +15556,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -15560,13 +15570,13 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15580,13 +15590,13 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15600,7 +15610,7 @@
         <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -15614,7 +15624,7 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>17</v>
@@ -15628,7 +15638,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>17</v>
@@ -15642,18 +15652,18 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -15662,7 +15672,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>17</v>
@@ -15687,7 +15697,7 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -15696,7 +15706,7 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>16</v>
@@ -15707,7 +15717,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -15716,7 +15726,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -15730,7 +15740,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>16</v>
@@ -15788,7 +15798,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -15797,13 +15807,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15811,7 +15821,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>294</v>
@@ -15832,13 +15842,13 @@
         <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15846,7 +15856,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -15860,7 +15870,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -15874,7 +15884,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -15888,7 +15898,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -15902,13 +15912,13 @@
         <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15927,7 +15937,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -15936,7 +15946,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -15956,13 +15966,13 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -15970,7 +15980,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -15984,13 +15994,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -15998,7 +16008,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
@@ -16018,7 +16028,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -16032,7 +16042,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -16052,7 +16062,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16060,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>17</v>
@@ -16074,7 +16084,7 @@
         <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>16</v>
@@ -16085,7 +16095,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>403</v>
+        <v>872</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -16094,13 +16104,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16114,13 +16124,13 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -16128,7 +16138,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>17</v>
@@ -16142,13 +16152,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -16156,7 +16166,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>16</v>
@@ -16176,7 +16186,7 @@
         <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -16190,7 +16200,7 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -16204,7 +16214,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
@@ -16218,7 +16228,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>16</v>
@@ -16238,13 +16248,13 @@
         <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -16252,13 +16262,13 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -16266,7 +16276,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -16280,7 +16290,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>17</v>
@@ -16294,7 +16304,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -16308,7 +16318,7 @@
         <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -16322,7 +16332,7 @@
         <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
@@ -16342,7 +16352,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -16356,7 +16366,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -16370,7 +16380,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>16</v>
@@ -16381,7 +16391,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -16390,7 +16400,7 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
@@ -16404,13 +16414,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16424,13 +16434,13 @@
         <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -16438,7 +16448,7 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -16452,7 +16462,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>17</v>
@@ -16466,13 +16476,13 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -16480,13 +16490,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -16494,18 +16504,18 @@
         <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -16514,7 +16524,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>17</v>
@@ -16528,7 +16538,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>16</v>
@@ -16545,10 +16555,10 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D63" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>17</v>
@@ -16559,24 +16569,24 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D65" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>16</v>
@@ -16590,13 +16600,13 @@
         <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
@@ -16604,7 +16614,7 @@
         <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>16</v>
@@ -16671,13 +16681,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>811</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>812</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16692,7 +16702,7 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -16709,18 +16719,18 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -16741,7 +16751,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -16769,7 +16779,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -16783,7 +16793,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -16797,13 +16807,13 @@
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16817,7 +16827,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -16831,13 +16841,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -16845,13 +16855,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16859,7 +16869,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
@@ -16870,7 +16880,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -16879,7 +16889,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>16</v>
@@ -16899,13 +16909,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16913,7 +16923,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>16</v>
@@ -16933,7 +16943,7 @@
         <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
@@ -16953,13 +16963,13 @@
         <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -16967,13 +16977,13 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
+        <v>824</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
         <v>825</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -16981,13 +16991,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17001,13 +17011,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -17015,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>16</v>
@@ -17035,7 +17045,7 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -17049,7 +17059,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
@@ -17063,7 +17073,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>16</v>
@@ -17097,7 +17107,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -17169,7 +17179,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -17178,13 +17188,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17192,7 +17202,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -17206,13 +17216,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17226,13 +17236,13 @@
         <v>82</v>
       </c>
       <c r="D6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>832</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17240,13 +17250,13 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -17254,7 +17264,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
@@ -17274,13 +17284,13 @@
         <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -17288,13 +17298,13 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -17302,7 +17312,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -17316,7 +17326,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -17330,13 +17340,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17350,7 +17360,7 @@
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -17364,7 +17374,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -17378,7 +17388,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -17392,7 +17402,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>16</v>
@@ -17412,13 +17422,13 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17440,7 +17450,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>16</v>
@@ -17460,7 +17470,7 @@
         <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
@@ -17471,7 +17481,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B27" t="s">
         <v>103</v>
@@ -17480,7 +17490,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -17494,7 +17504,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
@@ -17508,7 +17518,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
@@ -17528,7 +17538,7 @@
         <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>16</v>
@@ -17548,13 +17558,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17568,7 +17578,7 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>16</v>
@@ -17579,7 +17589,7 @@
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -17588,7 +17598,7 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
@@ -17602,13 +17612,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -17616,7 +17626,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -17630,7 +17640,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>16</v>
@@ -17650,7 +17660,7 @@
         <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -17664,7 +17674,7 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>16</v>
@@ -17675,7 +17685,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -17684,18 +17694,18 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -17704,13 +17714,13 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -17718,18 +17728,18 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -17738,13 +17748,13 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -17805,7 +17815,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -17816,7 +17826,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -17825,18 +17835,18 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>848</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>849</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -17845,18 +17855,18 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -17865,7 +17875,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -17885,12 +17895,12 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -17899,13 +17909,13 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
+        <v>852</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>853</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17919,7 +17929,7 @@
         <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -17939,13 +17949,13 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17959,7 +17969,7 @@
         <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
@@ -18017,7 +18027,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -18026,7 +18036,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -18040,13 +18050,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18060,7 +18070,7 @@
         <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -18074,7 +18084,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -18095,18 +18105,18 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -18115,7 +18125,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -18126,7 +18136,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -18135,18 +18145,18 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -18155,13 +18165,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18175,7 +18185,7 @@
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
@@ -18195,13 +18205,13 @@
         <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -18209,7 +18219,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>16</v>
@@ -18220,7 +18230,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -18229,7 +18239,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -18287,7 +18297,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -18296,18 +18306,18 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -18316,7 +18326,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -18327,7 +18337,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -18336,7 +18346,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -18356,13 +18366,13 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
+        <v>870</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>871</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -18623,8 +18633,8 @@
   </sheetPr>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20317,7 +20327,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -21405,7 +21415,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -22233,7 +22243,7 @@
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5994" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F83C96B-8EB0-40AA-BBC6-450DF72DE378}"/>
+  <xr:revisionPtr revIDLastSave="6004" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661DAEC4-6B1F-4314-8374-79B3889967D1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="32" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="879">
   <si>
     <t>6-4 6-4</t>
   </si>
@@ -2693,6 +2693,15 @@
   </si>
   <si>
     <t>Lin Zhu (CHINA)</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>Céline Naef (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(3) 6-2</t>
   </si>
 </sst>
 </file>
@@ -3328,7 +3337,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3965,7 +3974,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5393,7 +5402,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E40E34B7-C4F3-4761-A3A7-8A7535BB3667}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -18667,10 +18676,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18678,9 +18687,9 @@
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18735,6 +18744,26 @@
       </c>
       <c r="F3" t="s">
         <v>873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>876</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -18750,8 +18779,8 @@
   </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A31 F1:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19403,7 +19432,7 @@
         <v>2023</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -19412,11 +19441,11 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -19425,7 +19454,7 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C32" s="5">
         <f>SUM(C2:C31)</f>
@@ -19437,11 +19466,11 @@
       </c>
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F32" s="6">
         <f>(D32-E32)/D32</f>
-        <v>0.66911764705882348</v>
+        <v>0.66789215686274506</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -19450,7 +19479,7 @@
       </c>
       <c r="B33" s="5">
         <f>AVERAGE(B2:B31)</f>
-        <v>11.1</v>
+        <v>11.133333333333333</v>
       </c>
       <c r="C33" s="5">
         <f>AVERAGE(C2:C31)</f>
@@ -19462,16 +19491,16 @@
       </c>
       <c r="E33" s="5">
         <f>AVERAGE(E2:E31)</f>
-        <v>9</v>
+        <v>9.0333333333333332</v>
       </c>
       <c r="F33" s="6">
         <f>(D33-E33)/D33</f>
-        <v>0.66911764705882348</v>
+        <v>0.66789215686274506</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F18:F31">
-    <cfRule type="iconSet" priority="3">
+  <conditionalFormatting sqref="F2:F17">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19479,8 +19508,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F17">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F18:F31">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Soumya-Website/Tennis/WTA Tour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6019" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE390F0A-B967-4039-AA2C-8ECADA816BC1}"/>
+  <xr:revisionPtr revIDLastSave="6004" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661DAEC4-6B1F-4314-8374-79B3889967D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="879">
   <si>
     <t>6-4 6-4</t>
   </si>
@@ -2698,16 +2698,10 @@
     <t>LIBEMA OPEN</t>
   </si>
   <si>
-    <t>Celine Naef (SWITZERLAND)</t>
+    <t>Céline Naef (SWITZERLAND)</t>
   </si>
   <si>
     <t>3-6 7-6(3) 6-2</t>
-  </si>
-  <si>
-    <t>Camila Giorgi (ITALY)</t>
-  </si>
-  <si>
-    <t>7-6(5) 4-6 7-6(6)</t>
   </si>
 </sst>
 </file>
@@ -3115,7 +3109,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,7 +3337,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3980,7 +3974,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.5</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5482,10 +5476,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15817,8 +15807,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18317,7 +18307,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18686,20 +18676,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" activeCellId="2" sqref="A2 A5 A7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18774,40 +18764,6 @@
       </c>
       <c r="F5" t="s">
         <v>878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>838</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>879</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>799</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -19476,20 +19432,20 @@
         <v>2023</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>2</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -19498,7 +19454,7 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C32" s="5">
         <f>SUM(C2:C31)</f>
@@ -19506,15 +19462,15 @@
       </c>
       <c r="D32" s="5">
         <f>SUM(D2:D31)</f>
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F32" s="6">
         <f>(D32-E32)/D32</f>
-        <v>0.66707466340269272</v>
+        <v>0.66789215686274506</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -19523,7 +19479,7 @@
       </c>
       <c r="B33" s="5">
         <f>AVERAGE(B2:B31)</f>
-        <v>11.166666666666666</v>
+        <v>11.133333333333333</v>
       </c>
       <c r="C33" s="5">
         <f>AVERAGE(C2:C31)</f>
@@ -19531,15 +19487,15 @@
       </c>
       <c r="D33" s="5">
         <f>AVERAGE(D2:D31)</f>
-        <v>27.233333333333334</v>
+        <v>27.2</v>
       </c>
       <c r="E33" s="5">
         <f>AVERAGE(E2:E31)</f>
-        <v>9.0666666666666664</v>
+        <v>9.0333333333333332</v>
       </c>
       <c r="F33" s="6">
         <f>(D33-E33)/D33</f>
-        <v>0.66707466340269284</v>
+        <v>0.66789215686274506</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6004" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661DAEC4-6B1F-4314-8374-79B3889967D1}"/>
+  <xr:revisionPtr revIDLastSave="6020" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{999AE088-A16F-4ACD-9BD9-D3D0E1A141A7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5253" uniqueCount="881">
   <si>
     <t>6-4 6-4</t>
   </si>
@@ -2702,6 +2702,12 @@
   </si>
   <si>
     <t>3-6 7-6(3) 6-2</t>
+  </si>
+  <si>
+    <t>Elina Svitolina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Madison Keys (USA)</t>
   </si>
 </sst>
 </file>
@@ -3337,7 +3343,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3974,7 +3980,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5476,6 +5482,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18676,17 +18686,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -18764,6 +18774,46 @@
       </c>
       <c r="F5" t="s">
         <v>878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>879</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>868</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>880</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -19432,7 +19482,7 @@
         <v>2023</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -19441,11 +19491,11 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -19454,7 +19504,7 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C32" s="5">
         <f>SUM(C2:C31)</f>
@@ -19466,11 +19516,11 @@
       </c>
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F32" s="6">
         <f>(D32-E32)/D32</f>
-        <v>0.66789215686274506</v>
+        <v>0.6654411764705882</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -19479,7 +19529,7 @@
       </c>
       <c r="B33" s="5">
         <f>AVERAGE(B2:B31)</f>
-        <v>11.133333333333333</v>
+        <v>11.2</v>
       </c>
       <c r="C33" s="5">
         <f>AVERAGE(C2:C31)</f>
@@ -19491,11 +19541,11 @@
       </c>
       <c r="E33" s="5">
         <f>AVERAGE(E2:E31)</f>
-        <v>9.0333333333333332</v>
+        <v>9.1</v>
       </c>
       <c r="F33" s="6">
         <f>(D33-E33)/D33</f>
-        <v>0.66789215686274506</v>
+        <v>0.66544117647058831</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6020" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{999AE088-A16F-4ACD-9BD9-D3D0E1A141A7}"/>
+  <xr:revisionPtr revIDLastSave="6034" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02836CC0-D788-4C0A-ABD3-7C449D370105}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" firstSheet="23" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5253" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="884">
   <si>
     <t>6-4 6-4</t>
   </si>
@@ -2708,6 +2708,15 @@
   </si>
   <si>
     <t>Madison Keys (USA)</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>1-6 6-2 6-1</t>
   </si>
 </sst>
 </file>
@@ -3115,7 +3124,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,7 +3352,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3980,7 +3989,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18317,7 +18326,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18686,18 +18695,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A11" activeCellId="4" sqref="A2 A5 A7 A9 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -18814,6 +18823,40 @@
       </c>
       <c r="F9" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>588</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>881</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>882</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -19482,20 +19525,20 @@
         <v>2023</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -19504,7 +19547,7 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C32" s="5">
         <f>SUM(C2:C31)</f>
@@ -19512,15 +19555,15 @@
       </c>
       <c r="D32" s="5">
         <f>SUM(D2:D31)</f>
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F32" s="6">
         <f>(D32-E32)/D32</f>
-        <v>0.6654411764705882</v>
+        <v>0.66462668298653615</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -19529,7 +19572,7 @@
       </c>
       <c r="B33" s="5">
         <f>AVERAGE(B2:B31)</f>
-        <v>11.2</v>
+        <v>11.233333333333333</v>
       </c>
       <c r="C33" s="5">
         <f>AVERAGE(C2:C31)</f>
@@ -19537,15 +19580,15 @@
       </c>
       <c r="D33" s="5">
         <f>AVERAGE(D2:D31)</f>
-        <v>27.2</v>
+        <v>27.233333333333334</v>
       </c>
       <c r="E33" s="5">
         <f>AVERAGE(E2:E31)</f>
-        <v>9.1</v>
+        <v>9.1333333333333329</v>
       </c>
       <c r="F33" s="6">
         <f>(D33-E33)/D33</f>
-        <v>0.66544117647058831</v>
+        <v>0.66462668298653615</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6034" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02836CC0-D788-4C0A-ABD3-7C449D370105}"/>
+  <xr:revisionPtr revIDLastSave="6042" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A8096D8-9268-4E38-857B-7036BCE55132}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" firstSheet="23" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5269" uniqueCount="885">
   <si>
     <t>6-4 6-4</t>
   </si>
@@ -2717,6 +2717,9 @@
   </si>
   <si>
     <t>1-6 6-2 6-1</t>
+  </si>
+  <si>
+    <t>Greet Minnen (BELGIUM)</t>
   </si>
 </sst>
 </file>
@@ -3352,7 +3355,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3989,7 +3992,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.5</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18695,10 +18698,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" activeCellId="4" sqref="A2 A5 A7 A9 A11"/>
+      <selection activeCell="A14" activeCellId="5" sqref="A2 A5 A7 A9 A11 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18857,6 +18860,26 @@
       </c>
       <c r="F12" t="s">
         <v>883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>884</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -19525,7 +19548,7 @@
         <v>2023</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -19534,11 +19557,11 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -19547,7 +19570,7 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C32" s="5">
         <f>SUM(C2:C31)</f>
@@ -19559,11 +19582,11 @@
       </c>
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F32" s="6">
         <f>(D32-E32)/D32</f>
-        <v>0.66462668298653615</v>
+        <v>0.66340269277845776</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -19572,7 +19595,7 @@
       </c>
       <c r="B33" s="5">
         <f>AVERAGE(B2:B31)</f>
-        <v>11.233333333333333</v>
+        <v>11.266666666666667</v>
       </c>
       <c r="C33" s="5">
         <f>AVERAGE(C2:C31)</f>
@@ -19584,11 +19607,11 @@
       </c>
       <c r="E33" s="5">
         <f>AVERAGE(E2:E31)</f>
-        <v>9.1333333333333329</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="F33" s="6">
         <f>(D33-E33)/D33</f>
-        <v>0.66462668298653615</v>
+        <v>0.66340269277845787</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6042" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A8096D8-9268-4E38-857B-7036BCE55132}"/>
+  <xr:revisionPtr revIDLastSave="6045" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41DE406F-CB93-4DD3-88EF-3B707111B193}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <sheet name="2021" sheetId="59" r:id="rId28"/>
     <sheet name="2022" sheetId="62" r:id="rId29"/>
     <sheet name="2023" sheetId="65" r:id="rId30"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId31"/>
+    <sheet name="Stats" sheetId="1" r:id="rId31"/>
     <sheet name="Wins-Losses" sheetId="66" r:id="rId32"/>
     <sheet name="Winning Percentile Range" sheetId="67" r:id="rId33"/>
   </sheets>
@@ -1810,9 +1810,6 @@
     <t>6-0 6-7(8) 6-4</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>6-3 3-6 7-5</t>
   </si>
   <si>
@@ -2720,6 +2717,9 @@
   </si>
   <si>
     <t>Greet Minnen (BELGIUM)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -2915,7 +2915,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2936,7 +2936,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$31</c:f>
+              <c:f>Stats!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3035,7 +3035,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$31</c:f>
+              <c:f>Stats!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3143,7 +3143,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3164,7 +3164,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$31</c:f>
+              <c:f>Stats!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3263,7 +3263,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$31</c:f>
+              <c:f>Stats!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3752,7 +3752,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3801,7 +3801,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$31</c:f>
+              <c:f>Stats!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3900,7 +3900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$31</c:f>
+              <c:f>Stats!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5801,17 +5801,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5882,17 +5882,17 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6398,18 +6398,18 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6612,7 +6612,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -7353,18 +7353,18 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7658,7 +7658,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -8145,18 +8145,18 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8496,17 +8496,17 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8717,7 +8717,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -9461,17 +9461,17 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10306,17 +10306,17 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10603,7 +10603,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -10699,7 +10699,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>581</v>
+        <v>884</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -10714,7 +10714,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10734,7 +10734,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -10748,7 +10748,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -10776,7 +10776,7 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
@@ -10824,7 +10824,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -10880,7 +10880,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>17</v>
@@ -10947,7 +10947,7 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -10956,7 +10956,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>17</v>
@@ -10996,7 +10996,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11016,7 +11016,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -11038,7 +11038,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
@@ -11058,7 +11058,7 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11078,7 +11078,7 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11098,7 +11098,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -11112,7 +11112,7 @@
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11132,7 +11132,7 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -11146,7 +11146,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -11160,7 +11160,7 @@
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -11174,7 +11174,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -11188,7 +11188,7 @@
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -11205,17 +11205,17 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11277,7 +11277,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -11297,7 +11297,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11311,7 +11311,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11325,7 +11325,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -11339,7 +11339,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -11401,7 +11401,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -11415,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -11443,13 +11443,13 @@
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -11457,13 +11457,13 @@
         <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11477,7 +11477,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -11491,7 +11491,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -11511,7 +11511,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11607,7 +11607,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>581</v>
+        <v>884</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -11616,7 +11616,7 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
@@ -11650,7 +11650,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -11720,7 +11720,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -11782,7 +11782,7 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>17</v>
@@ -11810,7 +11810,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -11844,7 +11844,7 @@
         <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>17</v>
@@ -11858,13 +11858,13 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -11872,7 +11872,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>17</v>
@@ -11892,7 +11892,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -11920,7 +11920,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -11937,17 +11937,17 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11981,7 +11981,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -11995,13 +11995,13 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12009,13 +12009,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12030,13 +12030,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>628</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12078,7 +12078,7 @@
         <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -12092,13 +12092,13 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -12140,7 +12140,7 @@
         <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -12154,7 +12154,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>294</v>
@@ -12177,17 +12177,17 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12221,7 +12221,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -12241,7 +12241,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12249,13 +12249,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12288,7 +12288,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -12345,12 +12345,12 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>581</v>
+        <v>884</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -12359,13 +12359,13 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -12393,7 +12393,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -12407,13 +12407,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
+        <v>639</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
         <v>640</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -12455,13 +12455,13 @@
         <v>82</v>
       </c>
       <c r="D21" t="s">
+        <v>641</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
         <v>642</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -12489,7 +12489,7 @@
         <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>16</v>
@@ -12509,7 +12509,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -12523,7 +12523,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -12543,12 +12543,12 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -12563,7 +12563,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -12571,13 +12571,13 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -12585,7 +12585,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
@@ -12605,7 +12605,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -12619,7 +12619,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12653,7 +12653,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12667,7 +12667,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -12681,7 +12681,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>17</v>
@@ -12709,13 +12709,13 @@
         <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -12723,7 +12723,7 @@
         <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -12746,17 +12746,17 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12881,17 +12881,17 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12925,7 +12925,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -12964,7 +12964,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -12987,13 +12987,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13001,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -13015,13 +13015,13 @@
         <v>123</v>
       </c>
       <c r="D9" t="s">
+        <v>657</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>658</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13035,13 +13035,13 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13049,7 +13049,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>294</v>
@@ -13060,7 +13060,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -13069,13 +13069,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>663</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>664</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -13097,7 +13097,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -13129,7 +13129,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -13150,7 +13150,7 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -13176,7 +13176,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13196,12 +13196,12 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -13210,7 +13210,7 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -13224,7 +13224,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
@@ -13264,7 +13264,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13278,7 +13278,7 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -13306,13 +13306,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -13320,13 +13320,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -13340,7 +13340,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13354,7 +13354,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>16</v>
@@ -13377,17 +13377,17 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13412,7 +13412,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -13421,13 +13421,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13435,7 +13435,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -13449,7 +13449,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -13463,7 +13463,7 @@
         <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>17</v>
@@ -13497,13 +13497,13 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13517,7 +13517,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -13537,7 +13537,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -13627,7 +13627,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -13641,7 +13641,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -13661,12 +13661,12 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -13681,7 +13681,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -13689,7 +13689,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -13703,13 +13703,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
+        <v>687</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
         <v>688</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13723,7 +13723,7 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -13757,7 +13757,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -13771,7 +13771,7 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>16</v>
@@ -13791,7 +13791,7 @@
         <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -13805,7 +13805,7 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -13825,7 +13825,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13839,7 +13839,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
@@ -13867,13 +13867,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13887,7 +13887,7 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>17</v>
@@ -13901,7 +13901,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -13921,7 +13921,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -13935,7 +13935,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -13949,7 +13949,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -13968,7 +13968,7 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -13983,7 +13983,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13997,7 +13997,7 @@
         <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
@@ -14025,18 +14025,18 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -14045,7 +14045,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -14059,7 +14059,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>17</v>
@@ -14073,13 +14073,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -14087,7 +14087,7 @@
         <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -14112,7 +14112,7 @@
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -14121,13 +14121,13 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
+        <v>710</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
         <v>711</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14141,7 +14141,7 @@
         <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>17</v>
@@ -14155,7 +14155,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>17</v>
@@ -14192,17 +14192,17 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14227,7 +14227,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -14236,7 +14236,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -14250,7 +14250,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -14264,7 +14264,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -14278,7 +14278,7 @@
         <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -14312,7 +14312,7 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -14326,7 +14326,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -14340,13 +14340,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>714</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>715</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -14360,7 +14360,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14368,7 +14368,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
@@ -14385,7 +14385,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -14396,7 +14396,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -14417,7 +14417,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -14451,13 +14451,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -14471,7 +14471,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -14485,7 +14485,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14513,7 +14513,7 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
@@ -14547,7 +14547,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -14561,12 +14561,12 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>581</v>
+        <v>884</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -14595,7 +14595,7 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
@@ -14609,7 +14609,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -14623,7 +14623,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>16</v>
@@ -14643,7 +14643,7 @@
         <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>16</v>
@@ -14663,7 +14663,7 @@
         <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -14677,7 +14677,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -14691,7 +14691,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -14731,7 +14731,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14745,7 +14745,7 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -14765,7 +14765,7 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -14799,13 +14799,13 @@
         <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -14813,13 +14813,13 @@
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -14827,7 +14827,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>17</v>
@@ -14841,7 +14841,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>17</v>
@@ -14861,12 +14861,12 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -14889,7 +14889,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -14917,7 +14917,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>17</v>
@@ -14931,13 +14931,13 @@
         <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -14945,13 +14945,13 @@
         <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14976,7 +14976,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -14985,13 +14985,13 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -14999,7 +14999,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>17</v>
@@ -15038,7 +15038,7 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
@@ -15047,13 +15047,13 @@
         <v>557</v>
       </c>
       <c r="D70" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -15061,13 +15061,13 @@
         <v>557</v>
       </c>
       <c r="D71" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -15075,7 +15075,7 @@
         <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>17</v>
@@ -15089,7 +15089,7 @@
         <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>17</v>
@@ -15112,17 +15112,17 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15147,7 +15147,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -15156,13 +15156,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15176,7 +15176,7 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -15193,7 +15193,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -15204,7 +15204,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -15216,7 +15216,7 @@
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -15225,7 +15225,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -15239,7 +15239,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -15253,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -15267,7 +15267,7 @@
         <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -15281,7 +15281,7 @@
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -15301,7 +15301,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
@@ -15321,18 +15321,18 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -15341,7 +15341,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -15355,13 +15355,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15375,7 +15375,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -15389,13 +15389,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
+        <v>759</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>760</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15409,13 +15409,13 @@
         <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -15423,7 +15423,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -15443,7 +15443,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -15471,7 +15471,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -15485,13 +15485,13 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -15499,13 +15499,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -15527,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -15561,13 +15561,13 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -15575,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -15589,7 +15589,7 @@
         <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -15603,13 +15603,13 @@
         <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15637,13 +15637,13 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15663,7 +15663,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15677,7 +15677,7 @@
         <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -15691,7 +15691,7 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>17</v>
@@ -15705,7 +15705,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>17</v>
@@ -15719,18 +15719,18 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -15739,7 +15739,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>17</v>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -15793,7 +15793,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -15830,17 +15830,17 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15865,7 +15865,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -15874,7 +15874,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -15888,7 +15888,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>294</v>
@@ -15909,13 +15909,13 @@
         <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -15923,7 +15923,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -15937,7 +15937,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -15951,7 +15951,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -15979,13 +15979,13 @@
         <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -16004,7 +16004,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -16013,7 +16013,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -16039,7 +16039,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16067,7 +16067,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -16075,7 +16075,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
@@ -16095,7 +16095,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -16109,7 +16109,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -16129,7 +16129,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16151,7 +16151,7 @@
         <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>16</v>
@@ -16162,7 +16162,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -16171,13 +16171,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -16191,13 +16191,13 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -16205,7 +16205,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>17</v>
@@ -16219,13 +16219,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>16</v>
@@ -16253,7 +16253,7 @@
         <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -16267,7 +16267,7 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -16281,7 +16281,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
@@ -16315,13 +16315,13 @@
         <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -16329,13 +16329,13 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -16343,7 +16343,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -16357,7 +16357,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>17</v>
@@ -16371,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -16385,7 +16385,7 @@
         <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -16399,7 +16399,7 @@
         <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
@@ -16419,7 +16419,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -16433,7 +16433,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -16447,7 +16447,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>16</v>
@@ -16458,7 +16458,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -16467,7 +16467,7 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
@@ -16481,13 +16481,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -16501,13 +16501,13 @@
         <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -16515,7 +16515,7 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -16529,7 +16529,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>17</v>
@@ -16549,7 +16549,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -16563,7 +16563,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -16571,18 +16571,18 @@
         <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -16591,7 +16591,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>17</v>
@@ -16605,7 +16605,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>16</v>
@@ -16625,7 +16625,7 @@
         <v>557</v>
       </c>
       <c r="D63" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>17</v>
@@ -16639,13 +16639,13 @@
         <v>557</v>
       </c>
       <c r="D64" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.3">
@@ -16653,7 +16653,7 @@
         <v>557</v>
       </c>
       <c r="D65" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>16</v>
@@ -16667,13 +16667,13 @@
         <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.3">
@@ -16704,17 +16704,17 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -16748,13 +16748,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>811</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16769,7 +16769,7 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -16786,18 +16786,18 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -16818,7 +16818,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -16846,7 +16846,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -16874,13 +16874,13 @@
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -16894,7 +16894,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -16908,13 +16908,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -16922,13 +16922,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -16936,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
@@ -16947,7 +16947,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>884</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -16956,7 +16956,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>16</v>
@@ -16976,13 +16976,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16990,7 +16990,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>16</v>
@@ -17010,7 +17010,7 @@
         <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
@@ -17030,13 +17030,13 @@
         <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -17044,13 +17044,13 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
+        <v>823</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
         <v>824</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -17058,13 +17058,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17078,13 +17078,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -17092,7 +17092,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>16</v>
@@ -17112,7 +17112,7 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -17126,7 +17126,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
@@ -17140,7 +17140,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>16</v>
@@ -17174,7 +17174,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -17211,17 +17211,17 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -17246,7 +17246,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -17261,7 +17261,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17269,7 +17269,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -17283,13 +17283,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17303,13 +17303,13 @@
         <v>82</v>
       </c>
       <c r="D6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>831</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -17323,7 +17323,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -17331,7 +17331,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
@@ -17351,13 +17351,13 @@
         <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -17379,7 +17379,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -17393,7 +17393,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -17413,7 +17413,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17427,7 +17427,7 @@
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -17455,7 +17455,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -17469,7 +17469,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>16</v>
@@ -17489,13 +17489,13 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -17517,7 +17517,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>16</v>
@@ -17537,7 +17537,7 @@
         <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
@@ -17548,7 +17548,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B27" t="s">
         <v>103</v>
@@ -17557,7 +17557,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -17571,7 +17571,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
@@ -17585,7 +17585,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
@@ -17605,7 +17605,7 @@
         <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>16</v>
@@ -17631,7 +17631,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17656,7 +17656,7 @@
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -17665,7 +17665,7 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
@@ -17679,13 +17679,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -17693,7 +17693,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -17707,7 +17707,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>16</v>
@@ -17727,7 +17727,7 @@
         <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -17741,7 +17741,7 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>16</v>
@@ -17752,7 +17752,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -17761,13 +17761,13 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17787,7 +17787,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -17795,18 +17795,18 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -17815,13 +17815,13 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -17838,17 +17838,17 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -17882,7 +17882,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -17902,18 +17902,18 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>847</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>848</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -17922,7 +17922,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -17933,7 +17933,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -17967,7 +17967,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -17976,13 +17976,13 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
+        <v>851</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>852</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17996,7 +17996,7 @@
         <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -18036,7 +18036,7 @@
         <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
@@ -18059,17 +18059,17 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18094,7 +18094,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -18103,7 +18103,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -18123,7 +18123,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18151,7 +18151,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -18172,18 +18172,18 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>581</v>
+        <v>884</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -18192,7 +18192,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -18203,7 +18203,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -18212,18 +18212,18 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -18232,13 +18232,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18252,7 +18252,7 @@
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
@@ -18272,13 +18272,13 @@
         <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -18286,7 +18286,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>16</v>
@@ -18297,7 +18297,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -18306,7 +18306,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -18329,17 +18329,17 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18364,7 +18364,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -18373,7 +18373,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -18384,7 +18384,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -18393,7 +18393,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -18404,7 +18404,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -18413,7 +18413,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -18433,13 +18433,13 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
+        <v>869</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>870</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -18456,17 +18456,17 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18701,7 +18701,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" activeCellId="5" sqref="A2 A5 A7 A9 A11 A14"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18736,7 +18736,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -18745,7 +18745,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -18759,18 +18759,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B5" t="s">
         <v>103</v>
@@ -18779,13 +18779,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>876</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>877</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -18799,7 +18799,7 @@
         <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -18810,7 +18810,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -18819,7 +18819,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
@@ -18830,7 +18830,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -18839,7 +18839,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -18853,13 +18853,13 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>881</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>882</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -18873,7 +18873,7 @@
         <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -18895,8 +18895,8 @@
   </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19646,17 +19646,17 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -20422,17 +20422,17 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -21490,17 +21490,17 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -22696,17 +22696,17 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -23435,17 +23435,17 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -24285,17 +24285,17 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6047" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E89357-B560-4936-A68D-BD62507D85B8}"/>
+  <xr:revisionPtr revIDLastSave="6049" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230B1D9F-279D-4F59-85C4-245F98E48BDB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="29" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6049" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230B1D9F-279D-4F59-85C4-245F98E48BDB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="29" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="18" activeTab="29" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6050" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD7174EA-F966-4980-A7EA-596F2BD05CA8}"/>
+  <xr:revisionPtr revIDLastSave="6069" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97E30168-FBB1-478B-B14E-EEC9E0EB125A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="18" activeTab="29" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="18" activeTab="31" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -43,9 +43,8 @@
     <sheet name="2021" sheetId="59" r:id="rId28"/>
     <sheet name="2022" sheetId="62" r:id="rId29"/>
     <sheet name="2023" sheetId="65" r:id="rId30"/>
-    <sheet name="Stats" sheetId="1" r:id="rId31"/>
-    <sheet name="Wins-Losses" sheetId="66" r:id="rId32"/>
-    <sheet name="Winning Percentile Range" sheetId="67" r:id="rId33"/>
+    <sheet name="2024" sheetId="68" r:id="rId31"/>
+    <sheet name="Stats" sheetId="1" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5269" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5281" uniqueCount="886">
   <si>
     <t>6-4 6-4</t>
   </si>
@@ -2720,6 +2719,9 @@
   </si>
   <si>
     <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Nao Hibino (JAPAN)</t>
   </si>
 </sst>
 </file>
@@ -2834,2674 +2836,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Venus Williams (USA): Wins-Losses</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Stats!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WINS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Stats!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Stats!$D$2:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C978-4836-834D-2570995281D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Stats!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LOSSES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Stats!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Stats!$E$2:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C978-4836-834D-2570995281D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1058605056"/>
-        <c:axId val="1058590912"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1058605056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>YEAR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1058590912"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1058590912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> OF MATCHES</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1058605056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Venus Williams (USA): Winning Percentile Range</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Stats!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WINNING PERCENTILE RANGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>Stats!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Stats!$F$2:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54838709677419351</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75471698113207553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78688524590163933</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90243902439024393</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89130434782608692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85483870967741937</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.80769230769230771</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.72727272727272729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.72972972972972971</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.53846153846153844</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.57894736842105265</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.81578947368421051</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.68292682926829273</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.42307692307692307</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.63157894736842102</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.35294117647058826</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.21052631578947367</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F20E-4D98-8F29-23F57B2AC98A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1050096384"/>
-        <c:axId val="1050096800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1050096384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>YEAR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1050096800"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1050096800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>PERCENTAGE</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1050096384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0FB93442-73BC-42F8-990C-6E9B2CCE0FE8}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E40E34B7-C4F3-4761-A3A7-8A7535BB3667}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC20279B-5E50-3D25-A69C-F9D43A0511DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5446D8-48ED-1327-5A45-2C745A67FE8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5539,7 +2877,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5645,7 +2983,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5787,7 +3125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5800,8 +3138,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5881,8 +3219,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,8 +3736,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7353,8 +4691,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8145,8 +5483,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8495,8 +5833,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9460,8 +6798,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10305,8 +7643,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11204,8 +8542,8 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11936,8 +9274,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12176,8 +9514,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12745,8 +10083,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12880,8 +10218,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13376,8 +10714,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14191,8 +11529,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15111,8 +12449,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15829,8 +13167,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16703,8 +14041,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17210,8 +14548,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17837,8 +15175,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18058,8 +15396,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18328,8 +15666,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18455,8 +15793,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18700,8 +16038,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18889,14 +16227,81 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE35C2C-1EAF-49D8-919A-DB52A1E6921F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>885</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18946,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F31" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F32" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
@@ -19565,53 +16970,74 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="5">
-        <f>SUM(B2:B31)</f>
-        <v>338</v>
-      </c>
-      <c r="C32" s="5">
-        <f>SUM(C2:C31)</f>
-        <v>49</v>
-      </c>
-      <c r="D32" s="5">
-        <f>SUM(D2:D31)</f>
-        <v>817</v>
-      </c>
-      <c r="E32" s="5">
-        <f>SUM(E2:E31)</f>
-        <v>275</v>
-      </c>
-      <c r="F32" s="6">
-        <f>(D32-E32)/D32</f>
-        <v>0.66340269277845776</v>
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B33" s="5">
-        <f>AVERAGE(B2:B31)</f>
-        <v>11.266666666666667</v>
+        <f>SUM(B2:B32)</f>
+        <v>339</v>
       </c>
       <c r="C33" s="5">
-        <f>AVERAGE(C2:C31)</f>
-        <v>1.6333333333333333</v>
+        <f>SUM(C2:C32)</f>
+        <v>49</v>
       </c>
       <c r="D33" s="5">
-        <f>AVERAGE(D2:D31)</f>
-        <v>27.233333333333334</v>
+        <f>SUM(D2:D32)</f>
+        <v>817</v>
       </c>
       <c r="E33" s="5">
-        <f>AVERAGE(E2:E31)</f>
-        <v>9.1666666666666661</v>
+        <f>SUM(E2:E32)</f>
+        <v>276</v>
       </c>
       <c r="F33" s="6">
         <f>(D33-E33)/D33</f>
-        <v>0.66340269277845787</v>
+        <v>0.66217870257037947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="5">
+        <f>AVERAGE(B2:B32)</f>
+        <v>10.935483870967742</v>
+      </c>
+      <c r="C34" s="5">
+        <f>AVERAGE(C2:C32)</f>
+        <v>1.5806451612903225</v>
+      </c>
+      <c r="D34" s="5">
+        <f>AVERAGE(D2:D32)</f>
+        <v>26.35483870967742</v>
+      </c>
+      <c r="E34" s="5">
+        <f>AVERAGE(E2:E32)</f>
+        <v>8.9032258064516121</v>
+      </c>
+      <c r="F34" s="6">
+        <f>(D34-E34)/D34</f>
+        <v>0.66217870257037947</v>
       </c>
     </row>
   </sheetData>
@@ -19624,7 +17050,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F31">
+  <conditionalFormatting sqref="F18:F32">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -19645,8 +17071,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20421,8 +17847,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21489,8 +18915,8 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22695,8 +20121,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23434,8 +20860,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24284,8 +21710,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6082" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49BE2C4-AE8A-4942-B0C7-167E21CD9C35}"/>
+  <xr:revisionPtr revIDLastSave="6092" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15158595-6627-4EF2-9243-6C82C2254526}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="19" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="19" activeTab="31" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -2837,6 +2837,2561 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Venus Williams (USA)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WINS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDA4-4024-B05D-712F8B46F0F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LOSSES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDA4-4024-B05D-712F8B46F0F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="989313904"/>
+        <c:axId val="989311984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="989313904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>YEAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989311984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="989311984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>NUMBER OF MATCHES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989313904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Venus Williams (USA): Winning Percentile Range</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WINNING PERCENTILE RANGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54838709677419351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75471698113207553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78688524590163933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90243902439024393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89130434782608692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85483870967741937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72972972972972971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57894736842105265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81578947368421051</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68292682926829273</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63157894736842102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.21052631578947367</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41C2-48A5-8028-EA9B89DE38B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1187830864"/>
+        <c:axId val="1187827984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1187830864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187827984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1187827984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187830864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0578C04-2D3A-63F2-2BD2-BD27F55E5EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B2C786-F364-174C-0ECA-FE79F0243331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3141,7 +5696,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3222,7 +5777,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3739,7 +6294,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4694,7 +7249,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5486,7 +8041,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5836,7 +8391,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6801,7 +9356,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7646,7 +10201,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8545,7 +11100,7 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9277,7 +11832,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9517,7 +12072,7 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10086,7 +12641,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10221,7 +12776,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10717,7 +13272,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11532,7 +14087,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12452,7 +15007,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13170,7 +15725,7 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14044,7 +16599,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14551,7 +17106,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15178,7 +17733,7 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15399,7 +17954,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15669,7 +18224,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15796,7 +18351,7 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16041,7 +18596,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16236,7 +18791,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16323,8 +18878,8 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17084,6 +19639,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17094,7 +19650,7 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17870,7 +20426,7 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18938,7 +21494,7 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20144,7 +22700,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20883,7 +23439,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21733,7 +24289,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6092" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15158595-6627-4EF2-9243-6C82C2254526}"/>
+  <xr:revisionPtr revIDLastSave="6098" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8769EC1-1989-4EA3-A00D-884C3B0E1DB9}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="19" activeTab="31" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="19" activeTab="25" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -2301,9 +2301,6 @@
     <t>6-7(4) 6-3 6-3</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>Paula Kania-Choduń (POLAND)</t>
   </si>
   <si>
@@ -2725,6 +2722,9 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -5359,8 +5359,8 @@
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -10499,7 +10499,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -10595,7 +10595,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -11212,7 +11212,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -11503,7 +11503,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -12184,7 +12184,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -12246,7 +12246,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -12956,7 +12956,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -13404,7 +13404,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -13438,7 +13438,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -13562,7 +13562,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -14304,7 +14304,7 @@
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -14338,7 +14338,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -15007,8 +15007,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>745</v>
+        <v>886</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -15089,7 +15089,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -15100,7 +15100,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -15112,7 +15112,7 @@
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -15121,7 +15121,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -15135,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -15149,7 +15149,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -15177,7 +15177,7 @@
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -15223,12 +15223,12 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -15237,7 +15237,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -15257,7 +15257,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15271,7 +15271,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -15285,13 +15285,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
+        <v>756</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>757</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15311,7 +15311,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -15319,7 +15319,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -15339,7 +15339,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -15367,7 +15367,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -15381,13 +15381,13 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15395,13 +15395,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>745</v>
+        <v>886</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -15423,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -15457,13 +15457,13 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -15471,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -15485,7 +15485,7 @@
         <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -15505,7 +15505,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15539,7 +15539,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15559,7 +15559,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15573,7 +15573,7 @@
         <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -15601,7 +15601,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>17</v>
@@ -15621,7 +15621,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15689,7 +15689,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -15770,7 +15770,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -15784,7 +15784,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>294</v>
@@ -15805,13 +15805,13 @@
         <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15833,7 +15833,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -15875,13 +15875,13 @@
         <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15900,7 +15900,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -15909,7 +15909,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -15935,7 +15935,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -15963,7 +15963,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -15991,7 +15991,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -16005,7 +16005,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -16025,7 +16025,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16058,7 +16058,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -16067,13 +16067,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16087,7 +16087,7 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
@@ -16101,7 +16101,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>17</v>
@@ -16121,7 +16121,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -16149,7 +16149,7 @@
         <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -16177,7 +16177,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
@@ -16211,13 +16211,13 @@
         <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -16225,13 +16225,13 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -16239,7 +16239,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -16253,7 +16253,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>17</v>
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -16315,7 +16315,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -16363,7 +16363,7 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
@@ -16377,13 +16377,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16397,13 +16397,13 @@
         <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -16411,7 +16411,7 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -16425,7 +16425,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>17</v>
@@ -16445,7 +16445,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -16459,7 +16459,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -16473,7 +16473,7 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16487,7 +16487,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>17</v>
@@ -16501,7 +16501,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>16</v>
@@ -16535,13 +16535,13 @@
         <v>555</v>
       </c>
       <c r="D64" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
@@ -16569,7 +16569,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
@@ -16600,7 +16600,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16644,13 +16644,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>807</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>808</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16665,7 +16665,7 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -16682,18 +16682,18 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -16742,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -16770,7 +16770,7 @@
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>745</v>
+        <v>886</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -16790,7 +16790,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -16804,13 +16804,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -16824,7 +16824,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
@@ -16843,7 +16843,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -16878,7 +16878,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16906,7 +16906,7 @@
         <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
@@ -16932,7 +16932,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -16940,13 +16940,13 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
+        <v>820</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
         <v>821</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -16954,13 +16954,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16988,7 +16988,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>16</v>
@@ -17008,7 +17008,7 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -17106,8 +17106,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17157,7 +17157,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17179,13 +17179,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17199,13 +17199,13 @@
         <v>82</v>
       </c>
       <c r="D6" t="s">
+        <v>827</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>828</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17219,7 +17219,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -17253,7 +17253,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -17275,7 +17275,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -17323,7 +17323,7 @@
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -17351,7 +17351,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>745</v>
+        <v>886</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -17385,13 +17385,13 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17444,7 +17444,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B27" t="s">
         <v>103</v>
@@ -17453,7 +17453,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -17467,7 +17467,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
@@ -17481,7 +17481,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
@@ -17501,7 +17501,7 @@
         <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17575,13 +17575,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -17589,7 +17589,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -17657,13 +17657,13 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17683,7 +17683,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -17697,12 +17697,12 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -17711,7 +17711,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>16</v>
@@ -17778,7 +17778,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -17798,18 +17798,18 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>844</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>845</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -17829,7 +17829,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -17872,13 +17872,13 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
+        <v>848</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>849</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17892,7 +17892,7 @@
         <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -17990,7 +17990,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -17999,7 +17999,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -18074,12 +18074,12 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -18088,7 +18088,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -18099,7 +18099,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -18114,12 +18114,12 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -18134,7 +18134,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18148,7 +18148,7 @@
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
@@ -18168,13 +18168,13 @@
         <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -18182,7 +18182,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>16</v>
@@ -18193,7 +18193,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -18202,7 +18202,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -18260,7 +18260,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -18269,7 +18269,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -18280,7 +18280,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -18289,7 +18289,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -18329,13 +18329,13 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
+        <v>866</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>867</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -18641,7 +18641,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -18655,18 +18655,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B5" t="s">
         <v>103</v>
@@ -18675,13 +18675,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>874</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -18695,7 +18695,7 @@
         <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -18706,7 +18706,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -18715,7 +18715,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
@@ -18735,7 +18735,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -18749,13 +18749,13 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>878</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>879</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -18769,7 +18769,7 @@
         <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -18792,7 +18792,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18836,7 +18836,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -18856,7 +18856,7 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -18878,8 +18878,8 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24587,7 +24587,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6098" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8769EC1-1989-4EA3-A00D-884C3B0E1DB9}"/>
+  <xr:revisionPtr revIDLastSave="6099" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C27E2E9-BDAA-41C6-8CAC-D97640ED7ED5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="19" activeTab="25" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="7980" yWindow="5535" windowWidth="28785" windowHeight="15345" firstSheet="19" activeTab="31" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="888">
   <si>
     <t>6-4 6-4</t>
   </si>
@@ -2725,6 +2725,9 @@
   </si>
   <si>
     <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>SILICON VALLEY CLASSIC</t>
   </si>
 </sst>
 </file>
@@ -5390,10 +5393,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -13272,8 +13271,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13726,7 +13725,7 @@
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>887</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -14088,7 +14087,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17106,7 +17105,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -18878,7 +18877,7 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Venus Williams.xlsx
+++ b/Tennis/WTA Tour/Venus Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6099" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C27E2E9-BDAA-41C6-8CAC-D97640ED7ED5}"/>
+  <xr:revisionPtr revIDLastSave="6147" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF494010-D464-4D7E-B8AB-5EF50C9A41D0}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="5535" windowWidth="28785" windowHeight="15345" firstSheet="19" activeTab="31" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="19" activeTab="32" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1994" sheetId="29" r:id="rId1"/>
@@ -44,7 +44,8 @@
     <sheet name="2022" sheetId="62" r:id="rId29"/>
     <sheet name="2023" sheetId="65" r:id="rId30"/>
     <sheet name="2024" sheetId="68" r:id="rId31"/>
-    <sheet name="Stats" sheetId="1" r:id="rId32"/>
+    <sheet name="2025" sheetId="69" r:id="rId32"/>
+    <sheet name="Stats" sheetId="1" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="892">
   <si>
     <t>6-4 6-4</t>
   </si>
@@ -2728,6 +2729,18 @@
   </si>
   <si>
     <t>SILICON VALLEY CLASSIC</t>
+  </si>
+  <si>
+    <t>WASHINGTON OPEN</t>
+  </si>
+  <si>
+    <t>Jessica Bouzas Maneiro (SPAIN)</t>
+  </si>
+  <si>
+    <t>Peyton Stearns (USA)</t>
+  </si>
+  <si>
+    <t>Magdalena Fręch (POLAND)</t>
   </si>
 </sst>
 </file>
@@ -3143,7 +3156,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3379,7 +3392,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4022,7 +4035,7 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17733,7 +17746,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18791,7 +18804,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18871,6 +18884,127 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FB360B-EC99-4295-86A5-DC8970FDA266}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>890</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>889</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>850</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -18878,7 +19012,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19551,20 +19685,20 @@
         <v>2024</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" s="7" t="e">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -19573,7 +19707,7 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B32)</f>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C33" s="5">
         <f>SUM(C2:C32)</f>
@@ -19581,15 +19715,15 @@
       </c>
       <c r="D33" s="5">
         <f>SUM(D2:D32)</f>
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E33" s="5">
         <f>SUM(E2:E32)</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F33" s="6">
         <f>(D33-E33)/D33</f>
-        <v>0.66095471236230108</v>
+        <v>0.66014669926650371</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -19598,7 +19732,7 @@
       </c>
       <c r="B34" s="5">
         <f>AVERAGE(B2:B32)</f>
-        <v>10.96774193548387</v>
+        <v>11</v>
       </c>
       <c r="C34" s="5">
         <f>AVERAGE(C2:C32)</f>
@@ -19606,15 +19740,15 @@
       </c>
       <c r="D34" s="5">
         <f>AVERAGE(D2:D32)</f>
-        <v>26.35483870967742</v>
+        <v>26.387096774193548</v>
       </c>
       <c r="E34" s="5">
         <f>AVERAGE(E2:E32)</f>
-        <v>8.935483870967742</v>
+        <v>8.9677419354838701</v>
       </c>
       <c r="F34" s="6">
         <f>(D34-E34)/D34</f>
-        <v>0.66095471236230119</v>
+        <v>0.66014669926650371</v>
       </c>
     </row>
   </sheetData>
